--- a/data/trans_camb/P14_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>4,89</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,28</t>
+          <t>2,59; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,3</t>
+          <t>2,45; 7,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,09</t>
+          <t>3,28; 6,77</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>167,4%</t>
+          <t>162,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>138,8%</t>
+          <t>129,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>151,69%</t>
+          <t>143,78%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,11; 349,2</t>
+          <t>60,05; 338,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,41; 279,79</t>
+          <t>50,89; 268,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,74; 266,89</t>
+          <t>82,03; 251,21</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,08</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,94</t>
+          <t>1,62; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,35</t>
+          <t>1,47; 6,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,97</t>
+          <t>2,52; 5,94</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>173,26%</t>
+          <t>161,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>158,34%</t>
+          <t>147,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>165,71%</t>
+          <t>154,28%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,73; 414,74</t>
+          <t>34,52; 393,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,3; 386,48</t>
+          <t>38,04; 381,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,06; 320,53</t>
+          <t>72,16; 303,61</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 11,86</t>
+          <t>-0,02; 11,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 6,4</t>
+          <t>-0,5; 8,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,88</t>
+          <t>1,01; 7,74</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>184,83%</t>
+          <t>146,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>156,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>151,12%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 1024,13</t>
+          <t>-24,38; 1071,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 509,49</t>
+          <t>-30,52; 920,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 344,1</t>
+          <t>20,86; 653,29</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,47</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,66</t>
+          <t>2,94; 6,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,84</t>
+          <t>2,79; 5,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,64</t>
+          <t>3,31; 5,66</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>171,41%</t>
+          <t>159,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>124,11%</t>
+          <t>137,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>145,37%</t>
+          <t>148,22%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,16; 293,82</t>
+          <t>81,07; 285,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,01; 218,9</t>
+          <t>68,93; 224,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,86; 221,07</t>
+          <t>92,82; 219,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.054973460256429</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.658666359032624</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.847885305637831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 7,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 7,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 6,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.691825219033992</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.465766179291544</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.251192801280568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>162,22%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>129,13%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>143,78%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.814629034863948</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.031527023980252</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.682229373336177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>60,05; 338,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>50,89; 268,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>82,03; 251,21</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1.621727022715508</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.319508879799164</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.45443364301003</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.604275503042681</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.5329047606601416</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.8061236225109197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 6,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 6,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 5,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>3.428451891718805</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.717250275404229</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.550034363051042</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>161,33%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>147,58%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>154,28%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.239664552155142</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.035050089646385</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.136931187012491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>34,52; 393,17</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>38,04; 381,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>72,16; 303,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.71082534419621</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.658520385047274</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.549147957914524</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.79806994673326</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.473800032304022</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.895357248390082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 11,27</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 8,7</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 7,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.737640563318198</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.560963026334578</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.646280842870547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>146,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>156,6%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>151,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.3838534859975575</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.4054610203380117</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.7653015441425465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-24,38; 1071,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-30,52; 920,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>20,86; 653,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.125628702617409</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4.082418249406381</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.176185734163035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.451166954334793</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.049602000660278</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.267547351157476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 6,36</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 5,76</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 5,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.3696652123273547</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.202610190056032</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5483243915808735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>159,9%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>137,88%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>148,22%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.4089332635396</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.673019268690303</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.780905358937877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>81,07; 285,4</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>68,93; 224,5</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>92,82; 219,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.718416239259106</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5202614383439189</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.003518102352464</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1600063886152218</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.7214793943417824</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2409296310237532</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>11.63078297156975</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>4.669224923347679</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>3.908544647576678</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.654303629862524</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.127005770993542</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.384623872345891</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.989272355512102</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.545604276369825</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>3.148839608642145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.373979440734312</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.632695309945887</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.539164804493289</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.672638551272009</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.284543944502992</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.460233925375026</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.8530709518136818</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.6060721922768355</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8768655693370135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.963372925397572</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>2.150482040837967</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>2.195796062692506</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
